--- a/BestBuy_Project/allData/InvalidUrl.xlsx
+++ b/BestBuy_Project/allData/InvalidUrl.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BestBuy_Project\BestBuy_Project\allData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3B28C6-0E78-4002-8471-4A01AB1A99FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF3BFD1-AB80-4861-B4B7-0D7006095861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6660" yWindow="3825" windowWidth="21600" windowHeight="11295" xr2:uid="{7F8061A2-059E-4BAF-AE10-41E91318F806}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,39 +25,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>https://www.google.com</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com</t>
-  </si>
-  <si>
-    <t>https://www.github.com</t>
-  </si>
-  <si>
-    <t>https://www.oracle.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>error Message</t>
+  </si>
+  <si>
+    <t>www.bestbuy.com</t>
+  </si>
+  <si>
+    <t>fttp://www.bestbuy.com/?intl=nosplash</t>
+  </si>
+  <si>
+    <t>no protocol: www.bestbuy.com</t>
+  </si>
+  <si>
+    <t>unknown protocol: fttp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,16 +75,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -122,7 +114,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -134,7 +126,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -181,6 +173,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -216,6 +225,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -367,50 +393,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A35E886-596D-44E5-858E-F5C8262228D1}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00CED258-FAE1-4A16-87E9-03EA2E9E7C9A}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{DE78AA0D-0E8F-4932-853B-7754BDC934BF}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{8F6343F1-5FF3-48D3-A8AA-3838424B6FB7}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{8D3E938C-CAB4-4E36-A79C-D30C94F7BB7E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>